--- a/src/files/tempPDF/achatClient.xlsx
+++ b/src/files/tempPDF/achatClient.xlsx
@@ -11,23 +11,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
-  <si>
-    <t>Date de génération : 13/01/2025</t>
-  </si>
-  <si>
-    <t>Liste des comptes commerçants</t>
-  </si>
-  <si>
-    <t>Date exacte : 12/12/2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+  <si>
+    <t>Édité le : 16/01/2025</t>
+  </si>
+  <si>
+    <t>Liste des achats du commerçant : ali jemaa</t>
+  </si>
+  <si>
+    <t>le : 02/12/2024 à 16/01/2025</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>Article</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>2024-12-12</t>
   </si>
   <si>
-    <t>ali jemaa</t>
-  </si>
-  <si>
     <t>thon</t>
   </si>
   <si>
@@ -58,25 +52,34 @@
     <t>800,00</t>
   </si>
   <si>
-    <t>mohamed1 amich</t>
-  </si>
-  <si>
-    <t>Sardine</t>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>Korradh</t>
+  </si>
+  <si>
+    <t>5,00</t>
+  </si>
+  <si>
+    <t>Morjen</t>
+  </si>
+  <si>
+    <t>24 000,00</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>Balamit</t>
   </si>
   <si>
     <t>50,00</t>
   </si>
   <si>
-    <t>ferhat Jemaa</t>
-  </si>
-  <si>
-    <t>36 000,00</t>
-  </si>
-  <si>
-    <t>bogue</t>
-  </si>
-  <si>
-    <t>2,00</t>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>10,00</t>
   </si>
   <si>
     <t>Total</t>
@@ -85,7 +88,7 @@
     <t/>
   </si>
   <si>
-    <t>36 872,00</t>
+    <t>24 885,00</t>
   </si>
 </sst>
 </file>
@@ -502,12 +505,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +524,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" ht="40" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -532,7 +535,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="70" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -543,7 +546,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -562,137 +565,139 @@
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6">
-        <v>40</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6">
+        <v>100</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
+      <c r="C9" s="6">
+        <v>50</v>
       </c>
       <c r="D9" s="6">
         <v>12</v>
       </c>
-      <c r="F9" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6">
-        <v>30</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>165</v>
+      </c>
+      <c r="D12" s="6">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/files/tempPDF/achatClient.xlsx
+++ b/src/files/tempPDF/achatClient.xlsx
@@ -11,14 +11,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Édité le : 27/01/2025 à 17:25:13
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>Édité le : 28/01/2025 à 02:40:25
   par :</t>
   </si>
   <si>
-    <t>Liste Des Achats 
- Du Commerçant : ALI JEMAA</t>
+    <t>Liste Des Achats Des Commerçants</t>
   </si>
   <si>
     <t/>
@@ -30,6 +29,9 @@
     <t>Producteur</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>Article</t>
   </si>
   <si>
@@ -51,6 +53,21 @@
     <t>SOFIEN AMICH</t>
   </si>
   <si>
+    <t>mohamed1 amich</t>
+  </si>
+  <si>
+    <t>Sardine</t>
+  </si>
+  <si>
+    <t>5,00</t>
+  </si>
+  <si>
+    <t>50,00</t>
+  </si>
+  <si>
+    <t>ali jemaa</t>
+  </si>
+  <si>
     <t>Thon</t>
   </si>
   <si>
@@ -66,40 +83,127 @@
     <t>800,00</t>
   </si>
   <si>
+    <t>ferhat Jemaa</t>
+  </si>
+  <si>
+    <t>3 000,00</t>
+  </si>
+  <si>
+    <t>36 000,00</t>
+  </si>
+  <si>
+    <t>Bogue</t>
+  </si>
+  <si>
+    <t>2,00</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>MOHAMED1 AMICH</t>
+  </si>
+  <si>
+    <t>500,00</t>
+  </si>
+  <si>
+    <t>7 500,00</t>
+  </si>
+  <si>
+    <t>C1 C1</t>
+  </si>
+  <si>
+    <t>Balamit</t>
+  </si>
+  <si>
+    <t>c1 c1</t>
+  </si>
+  <si>
+    <t>Chourou malkouta</t>
+  </si>
+  <si>
+    <t>12,00</t>
+  </si>
+  <si>
+    <t>36,00</t>
+  </si>
+  <si>
+    <t>30,00</t>
+  </si>
+  <si>
     <t>2024-12-13</t>
   </si>
   <si>
+    <t>ALI JEMAA</t>
+  </si>
+  <si>
+    <t>Morjen</t>
+  </si>
+  <si>
+    <t>1 500,00</t>
+  </si>
+  <si>
+    <t>15 000,00</t>
+  </si>
+  <si>
+    <t>2 000,00</t>
+  </si>
+  <si>
+    <t>24 000,00</t>
+  </si>
+  <si>
     <t>MOHAMED MOHAMED</t>
   </si>
   <si>
     <t>Korradh</t>
   </si>
   <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>ALI JEMAA</t>
-  </si>
-  <si>
-    <t>Morjen</t>
-  </si>
-  <si>
-    <t>2 000,00</t>
-  </si>
-  <si>
-    <t>24 000,00</t>
-  </si>
-  <si>
-    <t>2024-12-02</t>
-  </si>
-  <si>
-    <t>C1 C1</t>
-  </si>
-  <si>
-    <t>Balamit</t>
-  </si>
-  <si>
-    <t>50,00</t>
+    <t>5 000,00</t>
+  </si>
+  <si>
+    <t>40 000,00</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>Zarka</t>
+  </si>
+  <si>
+    <t>4,00</t>
+  </si>
+  <si>
+    <t>Lambouka</t>
+  </si>
+  <si>
+    <t>6,00</t>
+  </si>
+  <si>
+    <t>Rzem</t>
+  </si>
+  <si>
+    <t>600,00</t>
+  </si>
+  <si>
+    <t>8,00</t>
+  </si>
+  <si>
+    <t>205,00</t>
+  </si>
+  <si>
+    <t>24,00</t>
+  </si>
+  <si>
+    <t>15,00</t>
+  </si>
+  <si>
+    <t>Latcha</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
+    <t>Macro</t>
   </si>
   <si>
     <t>2025-01-03</t>
@@ -108,25 +212,16 @@
     <t>FERHAT JEMAA</t>
   </si>
   <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
-    <t>Rzem</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>25 485,00 DT</t>
+    <t>2755</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>132 248,00 DT</t>
   </si>
 </sst>
 </file>
@@ -214,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -235,7 +330,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="3" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -254,11 +352,12 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -302,7 +401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -324,183 +423,713 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="n">
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="n">
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="F8" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>23</v>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="n">
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-12</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>120</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="54">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B8"/>
-    <mergeCell ref="D8:D8"/>
-    <mergeCell ref="B9:B9"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C6"/>
+    <mergeCell ref="D6:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D9"/>
-    <mergeCell ref="A10:A10"/>
-    <mergeCell ref="B10:B10"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D10"/>
-    <mergeCell ref="A11:A11"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B11"/>
     <mergeCell ref="D11:D11"/>
-    <mergeCell ref="A12:A12"/>
-    <mergeCell ref="B12:B12"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C12"/>
     <mergeCell ref="D12:D12"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D13"/>
+    <mergeCell ref="D14:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C15"/>
+    <mergeCell ref="D15:D15"/>
+    <mergeCell ref="C16:C16"/>
+    <mergeCell ref="D16:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C17"/>
+    <mergeCell ref="D17:D17"/>
+    <mergeCell ref="C18:C18"/>
+    <mergeCell ref="D18:D18"/>
+    <mergeCell ref="A19:A30"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D19"/>
+    <mergeCell ref="D20:D20"/>
+    <mergeCell ref="C21:C21"/>
+    <mergeCell ref="D21:D21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D22"/>
+    <mergeCell ref="D23:D23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D28"/>
+    <mergeCell ref="D29:D29"/>
+    <mergeCell ref="D30:D30"/>
+    <mergeCell ref="A31:A31"/>
+    <mergeCell ref="B31:B31"/>
+    <mergeCell ref="C31:C31"/>
+    <mergeCell ref="D31:D31"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
